--- a/Data/Test.xlsx
+++ b/Data/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\IdeaProjects\Batch14\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD803EF6-6599-41C9-8784-B3033C013F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AD37FC-755D-4436-A7BA-B05C1561222D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51137F7B-BB27-4DF4-8290-FA4E459D7E40}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
